--- a/biology/Botanique/Saribus/Saribus.xlsx
+++ b/biology/Botanique/Saribus/Saribus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saribus est un genre de plantes de la famille des Arecaceae (palmiers) natif de l'Asie du Sud-Est et de Papouasie.
-Il est étroitement lié au genre Livistona et a même fait partie des Livistona. Mais, à la suite d'analyse ADN et d'études, les scientifiques ont découvert que le genre Saribus est suffisamment différent du genre Livistona et c'est pour cela qu'en 2011, le genre Saribus est réapparu[1],[2], après les études Phylogénomique de Christine Bacon et William J. Baker.
+Il est étroitement lié au genre Livistona et a même fait partie des Livistona. Mais, à la suite d'analyse ADN et d'études, les scientifiques ont découvert que le genre Saribus est suffisamment différent du genre Livistona et c'est pour cela qu'en 2011, le genre Saribus est réapparu après les études Phylogénomique de Christine Bacon et William J. Baker.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les palmiers du genre Saribus ont un stipe unique et dressé. Leurs feuilles sont costapalmées et leurs pétioles allongées. Inflorescences apparaissant entre les feuilles, axillaires et solitaires, d'abord dressées avant de pendre à l'anthèse avec 1 à 3 ramifications. Les fleurs de ces palmiers sont hermaphrodisme, sessiles et groupées par 3 sur des axes courts. Ces fleurs possèdent 3 pétales valvaires et 6 étamines s'ouvrant par fente de manière longitudinale. Les ovaires contiennent 3 loges surmontées d'un style court[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palmiers du genre Saribus ont un stipe unique et dressé. Leurs feuilles sont costapalmées et leurs pétioles allongées. Inflorescences apparaissant entre les feuilles, axillaires et solitaires, d'abord dressées avant de pendre à l'anthèse avec 1 à 3 ramifications. Les fleurs de ces palmiers sont hermaphrodisme, sessiles et groupées par 3 sur des axes courts. Ces fleurs possèdent 3 pétales valvaires et 6 étamines s'ouvrant par fente de manière longitudinale. Les ovaires contiennent 3 loges surmontées d'un style court.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
 Sous-tribu des Livistoninae 
-Ce genre, Saribus, partage cette sous-tribu avec cinq autres genres : Licuala, Johannesteijsmannia, Pholidocarpus, Livistona, Lanonia [4].
+Ce genre, Saribus, partage cette sous-tribu avec cinq autres genres : Licuala, Johannesteijsmannia, Pholidocarpus, Livistona, Lanonia .
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Saribus contient les 9 espèces suivantes :
 Saribus brevifolius
@@ -586,10 +604,10 @@
 Saribus jeanneneyi
 Saribus merrillii
 Saribus papuanus
-Saribus rotundifolius[5]
+Saribus rotundifolius
 Saribus surru
 Saribus tothur
-Saribus woodfordii[6]</t>
+Saribus woodfordii</t>
         </is>
       </c>
     </row>
